--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED4285-4428-4961-87FE-08EEB2B9BE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49993CA9-1DA7-4769-A99D-60808BFD1A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,28 +519,64 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.25</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>1068.15</t>
-        </is>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
+          <t xml:space="preserve"> 1.25</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>166.40</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>632.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>145.34</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>148.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
       <c s="2" t="inlineStr">
         <is>
           <t/>
@@ -565,33 +601,69 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t>Коршук Павел Андреевич</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.25</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>104.00</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>946.66</t>
-        </is>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
+          <t>Трушель Мария Сергеевна</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.25</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c s="2" t="inlineStr">
         <is>
           <t>профессор</t>
@@ -599,12 +671,12 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t>кандидат наук</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>до 30 лет</t>
+          <t>степень магистра</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>30-40 лет</t>
         </is>
       </c>
     </row>
@@ -616,7 +688,7 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t>Трушель Мария Сергеевна</t>
+          <t>Коршук Павел Андреевич</t>
         </is>
       </c>
       <c s="2" t="inlineStr">
@@ -626,26 +698,62 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t>110.00</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>1220.00</t>
-        </is>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2" t="inlineStr">
-        <is>
-          <t>профессор</t>
+          <t>108.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>181.67</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>185.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr">
+        <is>
+          <t>заведующий кафедрой</t>
         </is>
       </c>
       <c s="2" t="inlineStr">
@@ -655,7 +763,7 @@
       </c>
       <c s="2" t="inlineStr">
         <is>
-          <t>до 30 лет</t>
+          <t>Более 60 лет</t>
         </is>
       </c>
     </row>
